--- a/AQE Gurgaon lab credentials.xlsx
+++ b/AQE Gurgaon lab credentials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manoj Kumar S\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\om\Desktop\AQE-UNIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5B0CA9D-D313-433B-B708-3DA92A3ACA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315B96FD-7411-464C-9AC9-CE8C83D60357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{9035D64A-56B8-47FE-8F82-8C8FEB70C332}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{9035D64A-56B8-47FE-8F82-8C8FEB70C332}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>Username</t>
   </si>
@@ -138,6 +127,54 @@
   </si>
   <si>
     <t>https://laas.makemylabs.in/wsm/AmdocsAQE08072420240807062829?invitation_id=847764ee-41c1-4e51-9f56-3bb885f90b4d&amp;context=True</t>
+  </si>
+  <si>
+    <t>Tushar Patyal</t>
+  </si>
+  <si>
+    <t>Stuti</t>
+  </si>
+  <si>
+    <t>Shubham Kumar</t>
+  </si>
+  <si>
+    <t>Shreya Sharma</t>
+  </si>
+  <si>
+    <t>Sameer Bhardwaj</t>
+  </si>
+  <si>
+    <t>Samarvir Singh</t>
+  </si>
+  <si>
+    <t>Sahil Chowdhary</t>
+  </si>
+  <si>
+    <t>Riya Sharma</t>
+  </si>
+  <si>
+    <t>Ritish Bhardwaj</t>
+  </si>
+  <si>
+    <t>Ridham Khazanchi</t>
+  </si>
+  <si>
+    <t>Nitish Mahant</t>
+  </si>
+  <si>
+    <t>Mohit</t>
+  </si>
+  <si>
+    <t>Karanbir singh</t>
+  </si>
+  <si>
+    <t>Asmi Vig</t>
+  </si>
+  <si>
+    <t>Anurag vaid</t>
+  </si>
+  <si>
+    <t>USERS</t>
   </si>
 </sst>
 </file>
@@ -202,11 +239,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -542,192 +580,241 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD1F7E5-EDC1-4F6C-B100-43823178941B}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="127.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.54296875" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="127.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
+      <c r="B2" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
+      <c r="B3" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
+      <c r="B4" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
+      <c r="B5" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
+      <c r="B6" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>4</v>
+      <c r="B8" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>4</v>
+      <c r="B9" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>4</v>
+      <c r="B10" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>4</v>
+      <c r="B11" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>4</v>
+      <c r="B12" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>4</v>
+      <c r="B13" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>4</v>
+      <c r="B14" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>4</v>
+      <c r="B15" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>4</v>
+      <c r="B16" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>33</v>
       </c>
     </row>
